--- a/public/services.xlsx
+++ b/public/services.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="501" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1082,7 +1082,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1135,82 +1135,163 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE7F5"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellXfs count="8">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCFE7F5"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1221,1578 +1302,1583 @@
   </sheetPr>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100">
-      <selection activeCell="Z1" activeCellId="0" pane="topLeft" sqref="Z1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.6604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6651162790698"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6651162790698"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.662962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.6666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.662962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.8481481481481"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.6666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.41481481481481"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="10.6666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.9074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="10.6666666666667"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="4">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="2" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="3" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="3" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="4" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1" t="s">
+      <c r="T6" s="3"/>
+      <c r="U6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1" t="s">
+      <c r="V6" s="3"/>
+      <c r="W6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Y6" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="7">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="3" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="4" t="s">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1" t="s">
+      <c r="U7" s="3"/>
+      <c r="V7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="8">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="3" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1" t="s">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="X8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Y8" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="9">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1" t="s">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1" t="s">
+      <c r="T9" s="3"/>
+      <c r="U9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="X9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Y9" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="10">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="3" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1" t="s">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="X10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="11">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="2" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1" t="s">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1" t="s">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="X11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Y11" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="12">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="3" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1" t="s">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1" t="s">
+      <c r="T12" s="3"/>
+      <c r="U12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Y12" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="13">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="3" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1" t="s">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Y13" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="14">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="3" t="s">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1" t="s">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="X14" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Y14" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="15">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="3" t="s">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1" t="s">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X15" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Y15" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="16">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="3" t="s">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1" t="s">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="X16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Y16" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="17">
-      <c r="A17" s="1" t="s">
+    <row r="17" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="3" t="s">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1" t="s">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="X17" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Y17" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="18">
-      <c r="A18" s="1" t="s">
+    <row r="18" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1" t="s">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="X18" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Y18" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="19">
-      <c r="A19" s="1" t="s">
+    <row r="19" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="3" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1" t="s">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="V19" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="X19" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Y19" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="20">
-      <c r="A20" s="1" t="s">
+    <row r="20" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1" t="s">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="X20" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Y20" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="21">
-      <c r="A21" s="1" t="s">
+    <row r="21" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1" t="s">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="V21" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="X21" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Y21" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="22">
-      <c r="A22" s="1" t="s">
+    <row r="22" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1" t="s">
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1" t="s">
+      <c r="T22" s="3"/>
+      <c r="U22" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="V22" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="W22" s="5" t="s">
+      <c r="W22" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="X22" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y22" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="23">
-      <c r="A23" s="1" t="s">
+    <row r="23" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1" t="s">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1" t="s">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1" t="s">
+      <c r="T23" s="3"/>
+      <c r="U23" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="W23" s="5" t="s">
+      <c r="W23" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="X23" s="5" t="s">
+      <c r="X23" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Y23" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="24">
-      <c r="A24" s="1" t="s">
+    <row r="24" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1" t="s">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1" t="s">
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1" t="s">
+      <c r="T24" s="3"/>
+      <c r="U24" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="W24" s="5" t="s">
+      <c r="W24" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="X24" s="5" t="s">
+      <c r="X24" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Y24" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="25">
-      <c r="A25" s="1" t="s">
+    <row r="25" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1" t="s">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="T25" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="U25" s="1" t="s">
+      <c r="U25" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="V25" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="W25" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="X25" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="Y25" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="26">
-      <c r="A26" s="1" t="s">
+    <row r="26" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1" t="s">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="V26" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="X26" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Y26" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="27">
-      <c r="A27" s="1" t="s">
+    <row r="27" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1" t="s">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="W27" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="X27" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="Y27" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="28">
-      <c r="A28" s="1" t="s">
+    <row r="28" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1" t="s">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="T28" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="V28" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="X28" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Y28" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="29">
-      <c r="A29" s="1" t="s">
+    <row r="29" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1" t="s">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="T29" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="U29" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="V29" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="X29" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="Y29" s="3" t="s">
         <v>315</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
